--- a/data/trans_orig/P16A_n_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R3-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6649</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2852</v>
+        <v>2836</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13268</v>
+        <v>12488</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009581116530324242</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004109126550741674</v>
+        <v>0.004086887401368991</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01911721814998695</v>
+        <v>0.01799365614187434</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -765,19 +765,19 @@
         <v>5868</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2751</v>
+        <v>2043</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12806</v>
+        <v>11946</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008524292649956831</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003996903586789879</v>
+        <v>0.002968254405974816</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01860340199758607</v>
+        <v>0.01735490478254888</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -786,19 +786,19 @@
         <v>12517</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6605</v>
+        <v>6741</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21065</v>
+        <v>21484</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009054868559281148</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00477817526311475</v>
+        <v>0.004876698841835589</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01523827438379963</v>
+        <v>0.01554177693264383</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>687363</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>680744</v>
+        <v>681524</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>691160</v>
+        <v>691176</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9904188834696758</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9808827818500131</v>
+        <v>0.9820063438581251</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9958908734492584</v>
+        <v>0.9959131125986309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>690</v>
@@ -836,19 +836,19 @@
         <v>682483</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>675545</v>
+        <v>676405</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>685600</v>
+        <v>686308</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9914757073500432</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9813965980024136</v>
+        <v>0.982645095217451</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9960030964132099</v>
+        <v>0.9970317455940249</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1366</v>
@@ -857,19 +857,19 @@
         <v>1369846</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1361298</v>
+        <v>1360879</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1375758</v>
+        <v>1375622</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9909451314407188</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9847617256162003</v>
+        <v>0.9844582230673561</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9952218247368853</v>
+        <v>0.9951233011581644</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>14584</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7760</v>
+        <v>7844</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25029</v>
+        <v>24173</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01516328196304706</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008068026971530333</v>
+        <v>0.008156052405515641</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02602308218258895</v>
+        <v>0.02513256730989608</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -982,19 +982,19 @@
         <v>21662</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12665</v>
+        <v>13632</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32934</v>
+        <v>33264</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02236869684294123</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01307792887233662</v>
+        <v>0.01407728213552559</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03400917826161651</v>
+        <v>0.03434971622677579</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -1003,19 +1003,19 @@
         <v>36246</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24700</v>
+        <v>25519</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51361</v>
+        <v>50649</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01877829534331388</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01279658008524086</v>
+        <v>0.01322083598613928</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02660929924042179</v>
+        <v>0.02624042842389676</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>947216</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>936771</v>
+        <v>937627</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>954040</v>
+        <v>953956</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9848367180369529</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.973976917817411</v>
+        <v>0.9748674326901038</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9919319730284696</v>
+        <v>0.9918439475944844</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>889</v>
@@ -1053,19 +1053,19 @@
         <v>946731</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>935459</v>
+        <v>935129</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>955728</v>
+        <v>954761</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9776313031570588</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9659908217383832</v>
+        <v>0.9656502837732238</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9869220711276633</v>
+        <v>0.9859227178644744</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1772</v>
@@ -1074,19 +1074,19 @@
         <v>1893947</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1878832</v>
+        <v>1879544</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1905493</v>
+        <v>1904674</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9812217046566861</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9733907007595781</v>
+        <v>0.9737595715761033</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9872034199147591</v>
+        <v>0.9867791640138608</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>9366</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4633</v>
+        <v>4648</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17439</v>
+        <v>17559</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01380385809629331</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006828929011624204</v>
+        <v>0.006850917963808609</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02570260659147398</v>
+        <v>0.02587948492026791</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1199,19 +1199,19 @@
         <v>28484</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20003</v>
+        <v>18949</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39288</v>
+        <v>39646</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04165322170199823</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02925122380143668</v>
+        <v>0.02771011624624386</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05745202099759478</v>
+        <v>0.0579748790655419</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -1220,19 +1220,19 @@
         <v>37850</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27076</v>
+        <v>27551</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51141</v>
+        <v>51194</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02778303991275878</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01987463224719485</v>
+        <v>0.0202232383707045</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03753878522001035</v>
+        <v>0.03757794979326579</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>669143</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>661070</v>
+        <v>660950</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>673876</v>
+        <v>673861</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9861961419037066</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9742973934085259</v>
+        <v>0.974120515079732</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9931710709883758</v>
+        <v>0.9931490820361915</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>667</v>
@@ -1270,19 +1270,19 @@
         <v>655357</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>644553</v>
+        <v>644195</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>663838</v>
+        <v>664892</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9583467782980017</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9425479790024052</v>
+        <v>0.9420251209344581</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9707487761985633</v>
+        <v>0.9722898837537561</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1299</v>
@@ -1291,19 +1291,19 @@
         <v>1324500</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1311209</v>
+        <v>1311156</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1335274</v>
+        <v>1334799</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9722169600872412</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9624612147799897</v>
+        <v>0.9624220502067342</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9801253677528053</v>
+        <v>0.9797767616292955</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>17815</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11145</v>
+        <v>11777</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26529</v>
+        <v>27267</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01890719696605358</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01182868357503084</v>
+        <v>0.01249917143366152</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02815590457621731</v>
+        <v>0.02893898830526507</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1416,19 +1416,19 @@
         <v>30932</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20740</v>
+        <v>21086</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42660</v>
+        <v>43091</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02978206829022149</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01996929139920531</v>
+        <v>0.02030230362498121</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0410737019223542</v>
+        <v>0.04148866796132254</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -1437,19 +1437,19 @@
         <v>48747</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37504</v>
+        <v>36600</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62938</v>
+        <v>63410</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02460922516287702</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01893349514142218</v>
+        <v>0.01847682272748706</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03177348761981665</v>
+        <v>0.03201171951485574</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>924407</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>915693</v>
+        <v>914955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>931077</v>
+        <v>930445</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9810928030339464</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9718440954237824</v>
+        <v>0.9710610116947349</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.988171316424969</v>
+        <v>0.9875008285663385</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>967</v>
@@ -1487,19 +1487,19 @@
         <v>1007680</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>995952</v>
+        <v>995521</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1017872</v>
+        <v>1017526</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9702179317097785</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9589262980776457</v>
+        <v>0.9585113320386773</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9800307086007948</v>
+        <v>0.9796976963750188</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1940</v>
@@ -1508,19 +1508,19 @@
         <v>1932087</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1917896</v>
+        <v>1917424</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1943330</v>
+        <v>1944234</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.975390774837123</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9682265123801833</v>
+        <v>0.9679882804851442</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9810665048585777</v>
+        <v>0.9815231772725128</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>48414</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36773</v>
+        <v>37491</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63778</v>
+        <v>63100</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01477602252712973</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01122318022834878</v>
+        <v>0.01144238637360486</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01946498160689208</v>
+        <v>0.01925800713609086</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>84</v>
@@ -1633,19 +1633,19 @@
         <v>86946</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69124</v>
+        <v>70220</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>107438</v>
+        <v>108831</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02572966005616997</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02045573238250396</v>
+        <v>0.02078010317046013</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03179400011348867</v>
+        <v>0.0322062430309303</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>134</v>
@@ -1654,19 +1654,19 @@
         <v>135360</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>111113</v>
+        <v>112029</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>158867</v>
+        <v>157395</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02033731232419787</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01669427122577981</v>
+        <v>0.01683195214914444</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02386913079493733</v>
+        <v>0.02364799133010926</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3228129</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3212765</v>
+        <v>3213443</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3239770</v>
+        <v>3239052</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9852239774728703</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9805350183931079</v>
+        <v>0.9807419928639091</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9887768197716511</v>
+        <v>0.988557613626395</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3213</v>
@@ -1704,19 +1704,19 @@
         <v>3292251</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3271759</v>
+        <v>3270366</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3310073</v>
+        <v>3308977</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9742703399438301</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9682059998865112</v>
+        <v>0.9677937569690697</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.979544267617496</v>
+        <v>0.9792198968295398</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6377</v>
@@ -1725,19 +1725,19 @@
         <v>6520381</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6496874</v>
+        <v>6498346</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6544628</v>
+        <v>6543712</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9796626876758021</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9761308692050616</v>
+        <v>0.9763520086698906</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.98330572877422</v>
+        <v>0.983168047850855</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>9445</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5112</v>
+        <v>4623</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17914</v>
+        <v>17600</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01342569062465512</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007266992122839876</v>
+        <v>0.006571441073608647</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02546508707073532</v>
+        <v>0.02501906251416304</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -2090,19 +2090,19 @@
         <v>32503</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22300</v>
+        <v>21586</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44225</v>
+        <v>43868</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04662899994635911</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03199176192073289</v>
+        <v>0.03096702071780207</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06344600985231671</v>
+        <v>0.06293450478130741</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -2111,19 +2111,19 @@
         <v>41947</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31309</v>
+        <v>31114</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56451</v>
+        <v>55893</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02995125514844539</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02235502762741525</v>
+        <v>0.02221636144216484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04030703725909236</v>
+        <v>0.03990899867455985</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>694024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>685555</v>
+        <v>685869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>698357</v>
+        <v>698846</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9865743093753448</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9745349129292646</v>
+        <v>0.974980937485837</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9927330078771601</v>
+        <v>0.9934285589263918</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>619</v>
@@ -2161,19 +2161,19 @@
         <v>664547</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>652825</v>
+        <v>653182</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>674750</v>
+        <v>675464</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9533710000536408</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9365539901476835</v>
+        <v>0.9370654952186928</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9680082380792672</v>
+        <v>0.969032979282198</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1284</v>
@@ -2182,19 +2182,19 @@
         <v>1358572</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1344068</v>
+        <v>1344626</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1369210</v>
+        <v>1369405</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9700487448515546</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9596929627409077</v>
+        <v>0.9600910013254401</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9776449723725847</v>
+        <v>0.9777836385578351</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>12275</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5634</v>
+        <v>6577</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22694</v>
+        <v>22461</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01205891691961884</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005535114786212192</v>
+        <v>0.006460941172704513</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02229394590367726</v>
+        <v>0.02206540010435636</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -2307,19 +2307,19 @@
         <v>53482</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41001</v>
+        <v>39843</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69744</v>
+        <v>70941</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05181476919217016</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03972221586317044</v>
+        <v>0.03860071044289584</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06756956220806332</v>
+        <v>0.068729355319836</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -2328,19 +2328,19 @@
         <v>65758</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50844</v>
+        <v>49872</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>85898</v>
+        <v>84645</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03207488280114006</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02480040341795995</v>
+        <v>0.02432643645664052</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04189887117385569</v>
+        <v>0.04128757059940491</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>1005672</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>995253</v>
+        <v>995486</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1012313</v>
+        <v>1011370</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9879410830803812</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9777060540963227</v>
+        <v>0.9779345998956438</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9944648852137878</v>
+        <v>0.9935390588272955</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>891</v>
@@ -2378,19 +2378,19 @@
         <v>978702</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>962440</v>
+        <v>961243</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>991183</v>
+        <v>992341</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9481852308078298</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9324304377919372</v>
+        <v>0.9312706446801651</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9602777841368296</v>
+        <v>0.9613992895571046</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1817</v>
@@ -2399,19 +2399,19 @@
         <v>1984373</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1964233</v>
+        <v>1965486</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1999287</v>
+        <v>2000259</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.96792511719886</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9581011288261443</v>
+        <v>0.958712429400595</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.97519959658204</v>
+        <v>0.9756735635433594</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>17816</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9354</v>
+        <v>10175</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30782</v>
+        <v>31238</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02351527860278027</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01234609990072323</v>
+        <v>0.01343023327199216</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04062985281522752</v>
+        <v>0.04123169835788783</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -2524,19 +2524,19 @@
         <v>28295</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19042</v>
+        <v>18775</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40271</v>
+        <v>39788</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03640779525726895</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02450101670843684</v>
+        <v>0.02415767555243922</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05181751069521603</v>
+        <v>0.05119527769199112</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -2545,19 +2545,19 @@
         <v>46111</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33650</v>
+        <v>33445</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63441</v>
+        <v>62250</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03004365123211285</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02192493268947151</v>
+        <v>0.02179122128820807</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0413348824636906</v>
+        <v>0.04055888675141158</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>739807</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>726841</v>
+        <v>726385</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>748269</v>
+        <v>747448</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9764847213972198</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9593701471847725</v>
+        <v>0.9587683016421134</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9876539000992768</v>
+        <v>0.9865697667280079</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>679</v>
@@ -2595,19 +2595,19 @@
         <v>748879</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>736903</v>
+        <v>737386</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>758132</v>
+        <v>758399</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9635922047427311</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.948182489304784</v>
+        <v>0.9488047223080088</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9754989832915631</v>
+        <v>0.9758423244475608</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1355</v>
@@ -2616,19 +2616,19 @@
         <v>1488686</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1471356</v>
+        <v>1472547</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1501147</v>
+        <v>1501352</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9699563487678872</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9586651175363086</v>
+        <v>0.9594411132485882</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9780750673105285</v>
+        <v>0.9782087787117918</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>22359</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13619</v>
+        <v>13710</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34035</v>
+        <v>36047</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02359180781554181</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01436972855472658</v>
+        <v>0.01446579534199425</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0359116137663786</v>
+        <v>0.03803436626475683</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -2741,19 +2741,19 @@
         <v>62850</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48597</v>
+        <v>49677</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81258</v>
+        <v>81998</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05974916086532052</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04619897178198395</v>
+        <v>0.0472256525268852</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07724905519590534</v>
+        <v>0.07795207023953557</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -2762,19 +2762,19 @@
         <v>85209</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67616</v>
+        <v>68137</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>105632</v>
+        <v>107413</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04261220593587595</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03381423904023698</v>
+        <v>0.03407466095696831</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05282544740497443</v>
+        <v>0.05371601558865835</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>925380</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>913704</v>
+        <v>911692</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>934120</v>
+        <v>934029</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9764081921844582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9640883862336217</v>
+        <v>0.9619656337352436</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9856302714452743</v>
+        <v>0.9855342046580061</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>943</v>
@@ -2812,19 +2812,19 @@
         <v>989051</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>970643</v>
+        <v>969903</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1003304</v>
+        <v>1002224</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9402508391346794</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9227509448040946</v>
+        <v>0.9220479297604643</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.953801028218016</v>
+        <v>0.9527743474731147</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1834</v>
@@ -2833,19 +2833,19 @@
         <v>1914431</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1894008</v>
+        <v>1892227</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1932024</v>
+        <v>1931503</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9573877940641241</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9471745525950255</v>
+        <v>0.9462839844113416</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9661857609597631</v>
+        <v>0.9659253390430317</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>61895</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45717</v>
+        <v>45518</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80250</v>
+        <v>80822</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01806200773201485</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01334097054065172</v>
+        <v>0.01328310100913626</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02341855380116064</v>
+        <v>0.02358539578053638</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>166</v>
@@ -2958,19 +2958,19 @@
         <v>177131</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>151162</v>
+        <v>150557</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>205659</v>
+        <v>204084</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04977940768485412</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04248134640155079</v>
+        <v>0.04231144856261884</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05779687767814759</v>
+        <v>0.05735410153037578</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>217</v>
@@ -2979,19 +2979,19 @@
         <v>239025</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>207961</v>
+        <v>208872</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>275036</v>
+        <v>273415</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.034219329349839</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02977215403099625</v>
+        <v>0.0299025460391752</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03937474411350065</v>
+        <v>0.03914267254379527</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3364884</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3346529</v>
+        <v>3345957</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3381062</v>
+        <v>3381261</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9819379922679852</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9765814461988394</v>
+        <v>0.9764146042194634</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9866590294593481</v>
+        <v>0.9867168989908637</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3132</v>
@@ -3029,19 +3029,19 @@
         <v>3381178</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3352650</v>
+        <v>3354225</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3407147</v>
+        <v>3407752</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9502205923151459</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9422031223218522</v>
+        <v>0.9426458984696242</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9575186535984492</v>
+        <v>0.9576885514373811</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6290</v>
@@ -3050,19 +3050,19 @@
         <v>6746063</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6710052</v>
+        <v>6711673</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6777127</v>
+        <v>6776216</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.965780670650161</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9606252558864993</v>
+        <v>0.9608573274562047</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9702278459690037</v>
+        <v>0.9700974539608248</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>14801</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8537</v>
+        <v>8591</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23803</v>
+        <v>24100</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02193461504940315</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01265106617911179</v>
+        <v>0.01273086583925368</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03527401611554112</v>
+        <v>0.03571399395582585</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -3415,19 +3415,19 @@
         <v>33623</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22592</v>
+        <v>23519</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46748</v>
+        <v>46475</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04997157942672549</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03357759276943668</v>
+        <v>0.03495539503048736</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06947929246845463</v>
+        <v>0.06907357979912904</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -3436,19 +3436,19 @@
         <v>48424</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36700</v>
+        <v>35800</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64090</v>
+        <v>63574</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03593269839911381</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02723260013849101</v>
+        <v>0.02656498267616128</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04755695045500884</v>
+        <v>0.0471747123648343</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>659999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>650997</v>
+        <v>650700</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>666263</v>
+        <v>666209</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9780653849505968</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9647259838844594</v>
+        <v>0.9642860060441749</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9873489338208887</v>
+        <v>0.9872691341607465</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>634</v>
@@ -3486,19 +3486,19 @@
         <v>639216</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>626091</v>
+        <v>626364</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>650247</v>
+        <v>649320</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9500284205732745</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9305207075315453</v>
+        <v>0.9309264202008708</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9664224072305629</v>
+        <v>0.9650446049695126</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1270</v>
@@ -3507,19 +3507,19 @@
         <v>1299215</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1283549</v>
+        <v>1284065</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1310939</v>
+        <v>1311839</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9640673016008862</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9524430495449913</v>
+        <v>0.9528252876351657</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9727673998615092</v>
+        <v>0.9734350173238389</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>16025</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9382</v>
+        <v>9502</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25425</v>
+        <v>26538</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01567389327307039</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00917662493175448</v>
+        <v>0.009293685435653573</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02486711958003562</v>
+        <v>0.02595574762364564</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -3632,19 +3632,19 @@
         <v>35461</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25680</v>
+        <v>24265</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52634</v>
+        <v>50558</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03400226408449295</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02462349010207432</v>
+        <v>0.02326627915123573</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05046819168827111</v>
+        <v>0.04847737879594536</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -3653,19 +3653,19 @@
         <v>51487</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38251</v>
+        <v>38971</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68593</v>
+        <v>67028</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0249289598779017</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01852057923412475</v>
+        <v>0.01886911870372527</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03321122071954722</v>
+        <v>0.03245343169334415</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>1006406</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>997006</v>
+        <v>995893</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1013049</v>
+        <v>1012929</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9843261067269297</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9751328804199645</v>
+        <v>0.9740442523763541</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9908233750682456</v>
+        <v>0.9907063145643462</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>947</v>
@@ -3703,19 +3703,19 @@
         <v>1007452</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>990279</v>
+        <v>992355</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1017233</v>
+        <v>1018648</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9659977359155071</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9495318083117283</v>
+        <v>0.9515226212040546</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9753765098979257</v>
+        <v>0.9767337208487643</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1882</v>
@@ -3724,19 +3724,19 @@
         <v>2013857</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1996751</v>
+        <v>1998316</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2027093</v>
+        <v>2026373</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9750710401220983</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9667887792804528</v>
+        <v>0.967546568306656</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9814794207658754</v>
+        <v>0.9811308812962748</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>14220</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7787</v>
+        <v>8089</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23681</v>
+        <v>24163</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01872198054946328</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01025204494920239</v>
+        <v>0.01064932235215864</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03117728872214603</v>
+        <v>0.03181256869026901</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -3849,19 +3849,19 @@
         <v>31151</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21493</v>
+        <v>20919</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44744</v>
+        <v>44147</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03968217581481127</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02737923587491557</v>
+        <v>0.02664831704234049</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05699755382503996</v>
+        <v>0.05623680719974246</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -3870,19 +3870,19 @@
         <v>45371</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32650</v>
+        <v>33003</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59499</v>
+        <v>60671</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0293748189004907</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02113857233534165</v>
+        <v>0.02136740510223356</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03852155524637139</v>
+        <v>0.0392803970534633</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>745332</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>735871</v>
+        <v>735389</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>751765</v>
+        <v>751463</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9812780194505367</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9688227112778542</v>
+        <v>0.9681874313097315</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9897479550507977</v>
+        <v>0.9893506776478413</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>708</v>
@@ -3920,19 +3920,19 @@
         <v>753860</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>740267</v>
+        <v>740864</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>763518</v>
+        <v>764092</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9603178241851887</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9430024461749603</v>
+        <v>0.9437631928002579</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9726207641250845</v>
+        <v>0.9733516829576596</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1390</v>
@@ -3941,19 +3941,19 @@
         <v>1499192</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1485064</v>
+        <v>1483892</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1511913</v>
+        <v>1511560</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9706251810995093</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9614784447536284</v>
+        <v>0.9607196029465368</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9788614276646582</v>
+        <v>0.9786325948977666</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>11216</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6289</v>
+        <v>6251</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20217</v>
+        <v>19319</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01196252410524285</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006707462338623042</v>
+        <v>0.006667536704835724</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02156279438528318</v>
+        <v>0.02060524163068139</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -4066,19 +4066,19 @@
         <v>52977</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39350</v>
+        <v>39202</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69766</v>
+        <v>70245</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05075532055409641</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03769970040897247</v>
+        <v>0.03755730660370712</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06683990924531852</v>
+        <v>0.06729864019655747</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -4087,19 +4087,19 @@
         <v>64193</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48943</v>
+        <v>48664</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81585</v>
+        <v>81558</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03239868544963378</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02470166988528229</v>
+        <v>0.02456087913715017</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04117669969778443</v>
+        <v>0.04116275282804033</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>926351</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>917350</v>
+        <v>918248</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>931278</v>
+        <v>931316</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9880374758947571</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.978437205614717</v>
+        <v>0.9793947583693188</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.993292537661377</v>
+        <v>0.9933324632951646</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>914</v>
@@ -4137,19 +4137,19 @@
         <v>990802</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>974013</v>
+        <v>973534</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1004429</v>
+        <v>1004577</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9492446794459036</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9331600907546815</v>
+        <v>0.9327013598034428</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9623002995910276</v>
+        <v>0.9624426933962931</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1835</v>
@@ -4158,19 +4158,19 @@
         <v>1917153</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1899761</v>
+        <v>1899788</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1932403</v>
+        <v>1932682</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9676013145503662</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9588233003022153</v>
+        <v>0.9588372471719593</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9752983301147177</v>
+        <v>0.9754391208628499</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>56263</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43132</v>
+        <v>42591</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72931</v>
+        <v>72328</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01657546778271118</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01270713609225152</v>
+        <v>0.01254758282162147</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02148602713303938</v>
+        <v>0.02130844137025758</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>135</v>
@@ -4283,19 +4283,19 @@
         <v>153213</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>131215</v>
+        <v>129418</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>183773</v>
+        <v>182524</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04322491113654393</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03701900656713414</v>
+        <v>0.03651188979855127</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05184668401652524</v>
+        <v>0.05149443638605214</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>192</v>
@@ -4304,19 +4304,19 @@
         <v>209475</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>179729</v>
+        <v>181583</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>239765</v>
+        <v>241578</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03018860177585751</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0259017388567377</v>
+        <v>0.0261688938662226</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0345538006209021</v>
+        <v>0.03481505442303424</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3338087</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3321419</v>
+        <v>3322022</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3351218</v>
+        <v>3351759</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9834245322172889</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9785139728669606</v>
+        <v>0.9786915586297424</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9872928639077485</v>
+        <v>0.9874524171783786</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3203</v>
@@ -4354,19 +4354,19 @@
         <v>3391329</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3360769</v>
+        <v>3362018</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3413327</v>
+        <v>3415124</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9567750888634561</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9481533159834745</v>
+        <v>0.9485055636139477</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9629809934328657</v>
+        <v>0.9634881102014486</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6377</v>
@@ -4375,19 +4375,19 @@
         <v>6729417</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6699127</v>
+        <v>6697314</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6759163</v>
+        <v>6757309</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9698113982241425</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9654461993790979</v>
+        <v>0.9651849455769658</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9740982611432623</v>
+        <v>0.9738311061337773</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>41442</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31856</v>
+        <v>31347</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55886</v>
+        <v>54695</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05999947652705939</v>
+        <v>0.0599994765270594</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04612080922860685</v>
+        <v>0.04538374395030952</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08091055559394432</v>
+        <v>0.07918600870383628</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>172</v>
@@ -4740,19 +4740,19 @@
         <v>75259</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64870</v>
+        <v>64726</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86762</v>
+        <v>86824</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1025071368371518</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08835684482575384</v>
+        <v>0.08816130497103676</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1181755690202931</v>
+        <v>0.1182599271086946</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>234</v>
@@ -4761,19 +4761,19 @@
         <v>116701</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101342</v>
+        <v>102362</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>133755</v>
+        <v>133902</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08190171437807559</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0711226025217971</v>
+        <v>0.07183828052048795</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09387063567142077</v>
+        <v>0.09397360595111776</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>649268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>634824</v>
+        <v>636015</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>658854</v>
+        <v>659363</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9400005234729406</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9190894444060556</v>
+        <v>0.9208139912961639</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9538791907713932</v>
+        <v>0.9546162560496906</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1069</v>
@@ -4811,19 +4811,19 @@
         <v>658921</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>647418</v>
+        <v>647356</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>669310</v>
+        <v>669454</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.897492863162848</v>
+        <v>0.8974928631628483</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8818244309797068</v>
+        <v>0.8817400728913051</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9116431551742461</v>
+        <v>0.9118386950289632</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1737</v>
@@ -4832,19 +4832,19 @@
         <v>1308188</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1291134</v>
+        <v>1290987</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1323547</v>
+        <v>1322527</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9180982856219245</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9061293643285794</v>
+        <v>0.9060263940488821</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9288773974782033</v>
+        <v>0.9281617194795121</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>44066</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33559</v>
+        <v>33691</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56152</v>
+        <v>56408</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04201089863820184</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03199434055652516</v>
+        <v>0.03211935593447066</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05353356847623274</v>
+        <v>0.05377711896189282</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>173</v>
@@ -4957,19 +4957,19 @@
         <v>97920</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>84666</v>
+        <v>84247</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>113988</v>
+        <v>113370</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09138812144103282</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07901843608371813</v>
+        <v>0.07862711916763448</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1063846786336249</v>
+        <v>0.105807794885315</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>236</v>
@@ -4978,19 +4978,19 @@
         <v>141986</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125177</v>
+        <v>123467</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>161583</v>
+        <v>162691</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06696215253574267</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05903500141030922</v>
+        <v>0.05822859900153461</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07620422683328885</v>
+        <v>0.07672685483876975</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1004851</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>992765</v>
+        <v>992509</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1015358</v>
+        <v>1015226</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9579891013617983</v>
+        <v>0.9579891013617982</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9464664315237673</v>
+        <v>0.9462228810381073</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9680056594434749</v>
+        <v>0.9678806440655294</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1344</v>
@@ -5028,19 +5028,19 @@
         <v>973554</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>957486</v>
+        <v>958104</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>986808</v>
+        <v>987227</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9086118785589672</v>
+        <v>0.908611878558967</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8936153213663754</v>
+        <v>0.8941922051146849</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9209815639162822</v>
+        <v>0.9213728808323651</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2245</v>
@@ -5049,19 +5049,19 @@
         <v>1978405</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1958808</v>
+        <v>1957700</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1995214</v>
+        <v>1996924</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9330378474642571</v>
+        <v>0.9330378474642572</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9237957731667114</v>
+        <v>0.9232731451612302</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9409649985896907</v>
+        <v>0.9417714009984655</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>29952</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20904</v>
+        <v>21839</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41134</v>
+        <v>42131</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03729662193513079</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02603032998459333</v>
+        <v>0.0271948024592821</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05122031056190643</v>
+        <v>0.05246255776099725</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -5174,19 +5174,19 @@
         <v>57743</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47416</v>
+        <v>46659</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71462</v>
+        <v>72210</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07108917814080003</v>
+        <v>0.07108917814080004</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05837604715319398</v>
+        <v>0.0574434224949226</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08797968810313896</v>
+        <v>0.08889981973827099</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>122</v>
@@ -5195,19 +5195,19 @@
         <v>87695</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73663</v>
+        <v>73856</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105103</v>
+        <v>105633</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0542889818607926</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0456023475718346</v>
+        <v>0.04572200814100687</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06506593464127877</v>
+        <v>0.06539418983866088</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>773121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>761939</v>
+        <v>760942</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>782169</v>
+        <v>781234</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9627033780648692</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9487796894380935</v>
+        <v>0.9475374422390028</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9739696700154068</v>
+        <v>0.9728051975407178</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>960</v>
@@ -5245,19 +5245,19 @@
         <v>754516</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>740797</v>
+        <v>740049</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>764843</v>
+        <v>765600</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9289108218591999</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9120203118968611</v>
+        <v>0.9111001802617291</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9416239528468061</v>
+        <v>0.9425565775050773</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1601</v>
@@ -5266,19 +5266,19 @@
         <v>1527637</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1510229</v>
+        <v>1509699</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1541669</v>
+        <v>1541476</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9457110181392073</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9349340653587213</v>
+        <v>0.9346058101613391</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9543976524281653</v>
+        <v>0.9542779918589933</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>51955</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41269</v>
+        <v>39426</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64754</v>
+        <v>65286</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05247627674488897</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04168282760117244</v>
+        <v>0.03982196253422901</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06540366864989806</v>
+        <v>0.06594148566919478</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>206</v>
@@ -5391,19 +5391,19 @@
         <v>125692</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>110635</v>
+        <v>109181</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>144181</v>
+        <v>145093</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1123211898897749</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09886625350287447</v>
+        <v>0.09756682297113066</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1288429452524129</v>
+        <v>0.1296582557547094</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>279</v>
@@ -5412,19 +5412,19 @@
         <v>177647</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>156024</v>
+        <v>158779</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>199294</v>
+        <v>198541</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0842285975623546</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07397660349896905</v>
+        <v>0.07528285976797419</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09449247429562896</v>
+        <v>0.09413536501528176</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>938107</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>925308</v>
+        <v>924776</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>948793</v>
+        <v>950636</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.947523723255111</v>
+        <v>0.9475237232551109</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9345963313501017</v>
+        <v>0.9340585143308053</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9583171723988274</v>
+        <v>0.9601780374657714</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1356</v>
@@ -5462,19 +5462,19 @@
         <v>993349</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>974860</v>
+        <v>973948</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1008406</v>
+        <v>1009860</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8876788101102252</v>
+        <v>0.8876788101102253</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8711570547475874</v>
+        <v>0.8703417442452906</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9011337464971259</v>
+        <v>0.9024331770288694</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2289</v>
@@ -5483,19 +5483,19 @@
         <v>1931457</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1909810</v>
+        <v>1910563</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1953080</v>
+        <v>1950325</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9157714024376455</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9055075257043713</v>
+        <v>0.9058646349847183</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9260233965010312</v>
+        <v>0.9247171402320261</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>167415</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>143791</v>
+        <v>146826</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>190798</v>
+        <v>192641</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04738922611486249</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04070212654548613</v>
+        <v>0.0415612714241106</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05400811772009118</v>
+        <v>0.05452977761981796</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>638</v>
@@ -5608,19 +5608,19 @@
         <v>356614</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>326490</v>
+        <v>331329</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>383739</v>
+        <v>387319</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.095428934882403</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08736805592527144</v>
+        <v>0.0886627484541215</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1026875376253002</v>
+        <v>0.1036457414574683</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>871</v>
@@ -5629,19 +5629,19 @@
         <v>524028</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>487831</v>
+        <v>485780</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>560913</v>
+        <v>559197</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07208375173044687</v>
+        <v>0.07208375173044686</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06710459366514861</v>
+        <v>0.06682238111472351</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07715745636858799</v>
+        <v>0.07692147858433436</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3365347</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3341964</v>
+        <v>3340121</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3388971</v>
+        <v>3385936</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9526107738851377</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9459918822799089</v>
+        <v>0.9454702223801821</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.959297873454514</v>
+        <v>0.9584387285758894</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4729</v>
@@ -5679,19 +5679,19 @@
         <v>3380340</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3353215</v>
+        <v>3349635</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3410464</v>
+        <v>3405625</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9045710651175971</v>
+        <v>0.904571065117597</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8973124623746999</v>
+        <v>0.8963542585425317</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9126319440747285</v>
+        <v>0.9113372515458784</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7872</v>
@@ -5700,19 +5700,19 @@
         <v>6745688</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6708803</v>
+        <v>6710519</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6781885</v>
+        <v>6783936</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9279162482695532</v>
+        <v>0.9279162482695531</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.922842543631412</v>
+        <v>0.9230785214156657</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9328954063348515</v>
+        <v>0.9331776188852764</v>
       </c>
     </row>
     <row r="18">
